--- a/excel/finished/能介/功率因素统计表.xlsx
+++ b/excel/finished/能介/功率因素统计表.xlsx
@@ -553,14 +553,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="&quot;(&quot;yyyy&quot;年&quot;m&quot;月)&quot;"/>
     <numFmt numFmtId="178" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,6 +627,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -634,23 +694,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,7 +710,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,6 +718,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -687,32 +748,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,39 +764,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,7 +807,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,7 +843,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,13 +861,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,85 +945,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,31 +975,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,19 +987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,45 +1079,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1136,6 +1104,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1153,8 +1160,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1172,13 +1179,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1187,139 +1194,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -1502,7 +1510,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="2286000" y="4556760"/>
-          <a:ext cx="3544570" cy="15240"/>
+          <a:ext cx="3550920" cy="15240"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1794,997 +1802,997 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="16.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="16.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="35.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="35.875" customWidth="1"/>
     <col min="9" max="9" width="11.75" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
-    <col min="11" max="11" width="18.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="18.375" customWidth="1"/>
     <col min="14" max="14" width="19.25" customWidth="1"/>
-    <col min="15" max="15" width="13.8333333333333" customWidth="1"/>
+    <col min="15" max="15" width="13.875" customWidth="1"/>
     <col min="18" max="18" width="15.25" customWidth="1"/>
-    <col min="19" max="19" width="13.8333333333333" customWidth="1"/>
+    <col min="19" max="19" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="E1" s="21" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="E1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="I1" s="21" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="I1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="M1" s="21" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="M1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="Q1" s="21" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="Q1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="22" t="s">
+      <c r="K2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="22"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="24" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23" t="s">
+      <c r="I3" s="23"/>
+      <c r="J3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23" t="s">
+      <c r="K3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="24" t="s">
+      <c r="O3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23" t="s">
+      <c r="C4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23" t="s">
+      <c r="G4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23" t="s">
+      <c r="K4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="23"/>
+      <c r="N4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="24" t="s">
+      <c r="O4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23" t="s">
+      <c r="C5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23" t="s">
+      <c r="G5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="23" t="s">
+      <c r="K5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="23"/>
+      <c r="N5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="24" t="s">
+      <c r="O5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="S5" s="23" t="s">
+      <c r="S5" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23" t="s">
+      <c r="C6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="22" t="s">
+      <c r="G6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="22" t="s">
+      <c r="K6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="24" t="s">
+      <c r="O6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="S6" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23" t="s">
+      <c r="C7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23" t="s">
+      <c r="G7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="23" t="s">
+      <c r="K7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="24" t="s">
+      <c r="O7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="S7" s="24" t="s">
+      <c r="S7" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23" t="s">
+      <c r="G8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="24" t="s">
+      <c r="M8" s="23"/>
+      <c r="N8" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="O8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="24" t="s">
+      <c r="Q8" s="23"/>
+      <c r="R8" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="S8" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23" t="s">
+      <c r="C9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23" t="s">
+      <c r="G9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="24" t="s">
+      <c r="M9" s="23"/>
+      <c r="N9" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="O9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="24" t="s">
+      <c r="Q9" s="23"/>
+      <c r="R9" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="S9" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="22"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23" t="s">
+      <c r="G10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="24" t="s">
+      <c r="M10" s="23"/>
+      <c r="N10" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="O10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="Q10" s="22" t="s">
+      <c r="Q10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="S10" s="24" t="s">
+      <c r="S10" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="22"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23" t="s">
+      <c r="G11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="24" t="s">
+      <c r="M11" s="23"/>
+      <c r="N11" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="24" t="s">
+      <c r="O11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="24" t="s">
+      <c r="Q11" s="23"/>
+      <c r="R11" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="S11" s="24" t="s">
+      <c r="S11" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23" t="s">
+      <c r="C12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23" t="s">
+      <c r="G12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="24" t="s">
+      <c r="O12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="23" t="s">
+      <c r="S12" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23" t="s">
+      <c r="E13" s="23"/>
+      <c r="F13" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23" t="s">
+      <c r="G13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="23" t="s">
+      <c r="M13" s="23"/>
+      <c r="N13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="24" t="s">
+      <c r="O13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="S13" s="23" t="s">
+      <c r="S13" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23" t="s">
+      <c r="E14" s="23"/>
+      <c r="F14" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23" t="s">
+      <c r="G14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="23" t="s">
+      <c r="K14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="O14" s="23" t="s">
+      <c r="O14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="24" t="s">
+      <c r="Q14" s="23"/>
+      <c r="R14" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="S14" s="24" t="s">
+      <c r="S14" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23" t="s">
+      <c r="C15" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="24" t="s">
+      <c r="G15" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K15" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="24" t="s">
+      <c r="K15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="23"/>
+      <c r="N15" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="O15" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="24" t="s">
+      <c r="O15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="S15" s="24" t="s">
+      <c r="S15" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23" t="s">
+      <c r="C16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="24" t="s">
+      <c r="G16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="23" t="s">
+      <c r="K16" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="O16" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="24" t="s">
+      <c r="Q16" s="23"/>
+      <c r="R16" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="S16" s="24" t="s">
+      <c r="S16" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="22"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23" t="s">
+      <c r="E17" s="23"/>
+      <c r="F17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="24" t="s">
+      <c r="G17" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="23" t="s">
+      <c r="K17" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="O17" s="23" t="s">
+      <c r="O17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="24" t="s">
+      <c r="Q17" s="23"/>
+      <c r="R17" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="S17" s="23" t="s">
+      <c r="S17" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23" t="s">
+      <c r="C18" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="24" t="s">
+      <c r="G18" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="22"/>
-      <c r="N18" s="23" t="s">
+      <c r="K18" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="23"/>
+      <c r="N18" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="O18" s="23" t="s">
+      <c r="O18" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="24" t="s">
+      <c r="Q18" s="23"/>
+      <c r="R18" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="S18" s="23" t="s">
+      <c r="S18" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="22"/>
-      <c r="N19" s="23" t="s">
+      <c r="M19" s="23"/>
+      <c r="N19" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="O19" s="23" t="s">
+      <c r="O19" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="24" t="s">
+      <c r="Q19" s="23"/>
+      <c r="R19" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="S19" s="24" t="s">
+      <c r="S19" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="22"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23" t="s">
+      <c r="C20" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="22"/>
-      <c r="N20" s="24" t="s">
+      <c r="M20" s="23"/>
+      <c r="N20" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="O20" s="24" t="s">
+      <c r="O20" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="24" t="s">
+      <c r="Q20" s="23"/>
+      <c r="R20" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="S20" s="24" t="s">
+      <c r="S20" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="22"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23" t="s">
+      <c r="C21" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="22"/>
-      <c r="N21" s="23" t="s">
+      <c r="M21" s="23"/>
+      <c r="N21" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="23" t="s">
+      <c r="O21" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="24" t="s">
+      <c r="Q21" s="23"/>
+      <c r="R21" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="S21" s="24" t="s">
+      <c r="S21" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="22"/>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="24" t="s">
+      <c r="C22" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="M22" s="22"/>
-      <c r="N22" s="24" t="s">
+      <c r="M22" s="23"/>
+      <c r="N22" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="O22" s="24" t="s">
+      <c r="O22" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="22"/>
-      <c r="B23" s="25" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="24" t="s">
+      <c r="C23" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="22"/>
-      <c r="N23" s="23" t="s">
+      <c r="M23" s="23"/>
+      <c r="N23" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="O23" s="23" t="s">
+      <c r="O23" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="5:15">
-      <c r="E24" s="22"/>
-      <c r="F24" s="23" t="s">
+      <c r="E24" s="23"/>
+      <c r="F24" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="22"/>
-      <c r="N24" s="24" t="s">
+      <c r="M24" s="23"/>
+      <c r="N24" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="O24" s="24" t="s">
+      <c r="O24" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="5:15">
-      <c r="E25" s="22"/>
-      <c r="F25" s="23" t="s">
+      <c r="E25" s="23"/>
+      <c r="F25" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="22"/>
-      <c r="N25" s="24" t="s">
+      <c r="M25" s="23"/>
+      <c r="N25" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="O25" s="24" t="s">
+      <c r="O25" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="5:15">
-      <c r="E26" s="22"/>
-      <c r="F26" s="23" t="s">
+      <c r="E26" s="23"/>
+      <c r="F26" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="22"/>
-      <c r="N26" s="23" t="s">
+      <c r="M26" s="23"/>
+      <c r="N26" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="O26" s="23" t="s">
+      <c r="O26" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="5:15">
-      <c r="E27" s="22"/>
-      <c r="F27" s="23" t="s">
+      <c r="E27" s="23"/>
+      <c r="F27" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="22"/>
-      <c r="N27" s="23" t="s">
+      <c r="M27" s="23"/>
+      <c r="N27" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="O27" s="23" t="s">
+      <c r="O27" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="5:15">
-      <c r="E28" s="22"/>
-      <c r="F28" s="24" t="s">
+      <c r="E28" s="23"/>
+      <c r="F28" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="M28" s="22"/>
-      <c r="N28" s="23" t="s">
+      <c r="M28" s="23"/>
+      <c r="N28" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="O28" s="23" t="s">
+      <c r="O28" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="5:15">
-      <c r="E29" s="22"/>
-      <c r="F29" s="24" t="s">
+      <c r="E29" s="23"/>
+      <c r="F29" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="M29" s="22"/>
-      <c r="N29" s="24" t="s">
+      <c r="M29" s="23"/>
+      <c r="N29" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="O29" s="24" t="s">
+      <c r="O29" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="5:15">
-      <c r="E30" s="22"/>
-      <c r="F30" s="23" t="s">
+      <c r="E30" s="23"/>
+      <c r="F30" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M30" s="22"/>
-      <c r="N30" s="24" t="s">
+      <c r="M30" s="23"/>
+      <c r="N30" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="O30" s="24" t="s">
+      <c r="O30" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="5:15">
-      <c r="E31" s="22"/>
-      <c r="F31" s="24" t="s">
+      <c r="E31" s="23"/>
+      <c r="F31" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M31" s="22"/>
-      <c r="N31" s="23" t="s">
+      <c r="G31" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="23"/>
+      <c r="N31" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="O31" s="23" t="s">
+      <c r="O31" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="5:7">
-      <c r="E32" s="22"/>
-      <c r="F32" s="24" t="s">
+      <c r="E32" s="23"/>
+      <c r="F32" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="5:7">
-      <c r="E33" s="22"/>
-      <c r="F33" s="24" t="s">
+      <c r="E33" s="23"/>
+      <c r="F33" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="5:7">
-      <c r="E34" s="22"/>
-      <c r="F34" s="24" t="s">
+      <c r="E34" s="23"/>
+      <c r="F34" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="5:7">
-      <c r="E35" s="22"/>
-      <c r="F35" s="24" t="s">
+      <c r="E35" s="23"/>
+      <c r="F35" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="25" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2819,652 +2827,799 @@
   <sheetPr/>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="3" max="3" width="44.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.5833333333333" customWidth="1"/>
+    <col min="3" max="3" width="44.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="7" width="11.5833333333333" customWidth="1"/>
+    <col min="6" max="7" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="10" width="11.5833333333333" customWidth="1"/>
+    <col min="9" max="10" width="11.625" customWidth="1"/>
     <col min="11" max="11" width="11.75" customWidth="1"/>
-    <col min="12" max="13" width="11.5833333333333" customWidth="1"/>
+    <col min="12" max="13" width="11.625" customWidth="1"/>
     <col min="14" max="14" width="11.75" customWidth="1"/>
     <col min="15" max="15" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.75" spans="1:15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4" t="str">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5" t="str">
         <f>IF(_metadata!B1="","",_metadata!B1)</f>
         <v/>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="20"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="21"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="9" t="str">
+      <c r="C5" s="10" t="str">
         <f>IF(_glys_month_all!A2="","",_glys_month_all!A2)</f>
         <v/>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="e">
+      <c r="D5" s="10" t="str">
+        <f>IF(_glys_month_all!A3="","",_glys_month_all!A3)</f>
+        <v/>
+      </c>
+      <c r="E5" s="11" t="e">
         <f>(D6-C6)/SQRT(((D7-C7)+(D8-C8))*((D7-C7)+(D8-C8))+(D6-C6)*(D6-C6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F5" s="9" t="str">
+      <c r="F5" s="10" t="str">
         <f>IF(_glys_month_all!A3="","",_glys_month_all!A3)</f>
         <v/>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10" t="e">
+      <c r="G5" s="10" t="str">
+        <f>IF(_glys_month_all!A4="","",_glys_month_all!A4)</f>
+        <v/>
+      </c>
+      <c r="H5" s="11" t="e">
         <f>(G6-F6)/SQRT(((G7-F7)+(G8-F8))*((G7-F7)+(G8-F8))+(G6-F6)*(G6-F6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I5" s="9" t="str">
+      <c r="I5" s="10" t="str">
         <f>IF(_glys_month_all!A4="","",_glys_month_all!A4)</f>
         <v/>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10" t="e">
+      <c r="J5" s="10" t="str">
+        <f>IF(_glys_month_all!A5="","",_glys_month_all!A5)</f>
+        <v/>
+      </c>
+      <c r="K5" s="11" t="e">
         <f>(J6-I6)/SQRT(((J7-I7)+(J8-I8))*((J7-I7)+(J8-I8))+(J6-I6)*(J6-I6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L5" s="9" t="str">
+      <c r="L5" s="10" t="str">
         <f>IF(_glys_month_all!A5="","",_glys_month_all!A5)</f>
         <v/>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="10" t="e">
+      <c r="M5" s="10" t="str">
+        <f>IF(_glys_month_all!A6="","",_glys_month_all!A6)</f>
+        <v/>
+      </c>
+      <c r="N5" s="11" t="e">
         <f>(M6-L6)/SQRT(((M7-L7)+(M8-L8))*((M7-L7)+(M8-L8))+(M6-L6)*(M6-L6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O5" s="10" t="e">
+      <c r="O5" s="11" t="e">
         <f>(M6-C6)/SQRT(((M7-C7)+(M8-C8))*((M7-C7)+(M8-C8))+(M6-C6)*(M6-C6))</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="9" t="str">
+      <c r="C6" s="10" t="str">
         <f>IF(_glys_month_all!E2="","",_glys_month_all!E2)</f>
         <v/>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9" t="str">
+      <c r="D6" s="12" t="str">
         <f>IF(_glys_month_all!E3="","",_glys_month_all!E3)</f>
         <v/>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="9" t="str">
+      <c r="E6" s="11"/>
+      <c r="F6" s="10" t="str">
+        <f>IF(_glys_month_all!E3="","",_glys_month_all!E3)</f>
+        <v/>
+      </c>
+      <c r="G6" s="12" t="str">
         <f>IF(_glys_month_all!E4="","",_glys_month_all!E4)</f>
         <v/>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="9" t="str">
+      <c r="H6" s="11"/>
+      <c r="I6" s="10" t="str">
+        <f>IF(_glys_month_all!E4="","",_glys_month_all!E4)</f>
+        <v/>
+      </c>
+      <c r="J6" s="12" t="str">
         <f>IF(_glys_month_all!E5="","",_glys_month_all!E5)</f>
         <v/>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="10" t="str">
+        <f>IF(_glys_month_all!E5="","",_glys_month_all!E5)</f>
+        <v/>
+      </c>
+      <c r="M6" s="12" t="str">
+        <f>IF(_glys_month_all!E6="","",_glys_month_all!E6)</f>
+        <v/>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="9" t="str">
+      <c r="C7" s="10" t="str">
         <f>IF(_glys_month_all!G2="","",_glys_month_all!G2)</f>
         <v/>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9" t="str">
+      <c r="D7" s="10" t="str">
         <f>IF(_glys_month_all!G3="","",_glys_month_all!G3)</f>
         <v/>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="9" t="str">
+      <c r="E7" s="11"/>
+      <c r="F7" s="10" t="str">
+        <f>IF(_glys_month_all!G3="","",_glys_month_all!G3)</f>
+        <v/>
+      </c>
+      <c r="G7" s="10" t="str">
         <f>IF(_glys_month_all!G4="","",_glys_month_all!G4)</f>
         <v/>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="9" t="str">
+      <c r="H7" s="11"/>
+      <c r="I7" s="10" t="str">
+        <f>IF(_glys_month_all!G4="","",_glys_month_all!G4)</f>
+        <v/>
+      </c>
+      <c r="J7" s="10" t="str">
         <f>IF(_glys_month_all!G5="","",_glys_month_all!G5)</f>
         <v/>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="10" t="str">
+        <f>IF(_glys_month_all!G5="","",_glys_month_all!G5)</f>
+        <v/>
+      </c>
+      <c r="M7" s="10" t="str">
+        <f>IF(_glys_month_all!G6="","",_glys_month_all!G6)</f>
+        <v/>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="9" t="str">
+      <c r="C8" s="10" t="str">
         <f>IF(_glys_month_all!F2="","",_glys_month_all!F2)</f>
         <v/>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9" t="str">
+      <c r="D8" s="10" t="str">
         <f>IF(_glys_month_all!F3="","",_glys_month_all!F3)</f>
         <v/>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="9" t="str">
+      <c r="E8" s="11"/>
+      <c r="F8" s="10" t="str">
+        <f>IF(_glys_month_all!F3="","",_glys_month_all!F3)</f>
+        <v/>
+      </c>
+      <c r="G8" s="10" t="str">
         <f>IF(_glys_month_all!F4="","",_glys_month_all!F4)</f>
         <v/>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="9" t="str">
+      <c r="H8" s="11"/>
+      <c r="I8" s="10" t="str">
+        <f>IF(_glys_month_all!F4="","",_glys_month_all!F4)</f>
+        <v/>
+      </c>
+      <c r="J8" s="10" t="str">
         <f>IF(_glys_month_all!F5="","",_glys_month_all!F5)</f>
         <v/>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="10" t="str">
+        <f>IF(_glys_month_all!F5="","",_glys_month_all!F5)</f>
+        <v/>
+      </c>
+      <c r="M8" s="10" t="str">
+        <f>IF(_glys_month_all!F6="","",_glys_month_all!F6)</f>
+        <v/>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="9" t="str">
+      <c r="C9" s="10" t="str">
         <f>IF(_glys_month_all!B2="","",_glys_month_all!B2)</f>
         <v/>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10" t="e">
+      <c r="D9" s="12" t="str">
+        <f>IF(_glys_month_all!B3="","",_glys_month_all!B3)</f>
+        <v/>
+      </c>
+      <c r="E9" s="11" t="e">
         <f>(D10-C10)/SQRT(((D11-C11)+(D12-C12))*((D11-C11)+(D12-C12))+(D10-C10)*(D10-C10))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F9" s="9" t="str">
+      <c r="F9" s="10" t="str">
         <f>IF(_glys_month_all!B3="","",_glys_month_all!B3)</f>
         <v/>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10" t="e">
+      <c r="G9" s="12" t="str">
+        <f>IF(_glys_month_all!B4="","",_glys_month_all!B4)</f>
+        <v/>
+      </c>
+      <c r="H9" s="11" t="e">
         <f>(G10-F10)/SQRT(((G11-F11)+(G12-F12))*((G11-F11)+(G12-F12))+(G10-F10)*(G10-F10))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I9" s="9" t="str">
+      <c r="I9" s="10" t="str">
         <f>IF(_glys_month_all!B4="","",_glys_month_all!B4)</f>
         <v/>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10" t="e">
+      <c r="J9" s="12" t="str">
+        <f>IF(_glys_month_all!B5="","",_glys_month_all!B5)</f>
+        <v/>
+      </c>
+      <c r="K9" s="11" t="e">
         <f>(J10-I10)/SQRT(((J11-I11)+(J12-I12))*((J11-I11)+(J12-I12))+(J10-I10)*(J10-I10))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L9" s="9" t="str">
+      <c r="L9" s="10" t="str">
         <f>IF(_glys_month_all!B5="","",_glys_month_all!B5)</f>
         <v/>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="10" t="e">
+      <c r="M9" s="12" t="str">
+        <f>IF(_glys_month_all!B6="","",_glys_month_all!B6)</f>
+        <v/>
+      </c>
+      <c r="N9" s="11" t="e">
         <f>(M10-L10)/SQRT(((M11-L11)+(M12-L12))*((M11-L11)+(M12-L12))+(M10-L10)*(M10-L10))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O9" s="10" t="e">
+      <c r="O9" s="11" t="e">
         <f>(M10-C10)/SQRT(((M11-C11)+(M12-C12))*((M11-C11)+(M12-C12))+(M10-C10)*(M10-C10))</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="9" t="str">
+      <c r="C10" s="10" t="str">
         <f>IF(_glys_month_all!H2="","",_glys_month_all!H2)</f>
         <v/>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="9" t="str">
+      <c r="D10" s="12" t="str">
         <f>IF(_glys_month_all!H3="","",_glys_month_all!H3)</f>
         <v/>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="9" t="str">
+      <c r="E10" s="11"/>
+      <c r="F10" s="10" t="str">
+        <f>IF(_glys_month_all!H3="","",_glys_month_all!H3)</f>
+        <v/>
+      </c>
+      <c r="G10" s="12" t="str">
         <f>IF(_glys_month_all!H4="","",_glys_month_all!H4)</f>
         <v/>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="9" t="str">
+      <c r="H10" s="11"/>
+      <c r="I10" s="10" t="str">
+        <f>IF(_glys_month_all!H4="","",_glys_month_all!H4)</f>
+        <v/>
+      </c>
+      <c r="J10" s="12" t="str">
         <f>IF(_glys_month_all!H5="","",_glys_month_all!H5)</f>
         <v/>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="10" t="str">
+        <f>IF(_glys_month_all!H5="","",_glys_month_all!H5)</f>
+        <v/>
+      </c>
+      <c r="M10" s="12" t="str">
+        <f>IF(_glys_month_all!H6="","",_glys_month_all!H6)</f>
+        <v/>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="9" t="str">
+      <c r="C11" s="10" t="str">
         <f>IF(_glys_month_all!J2="","",_glys_month_all!J2)</f>
         <v/>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9" t="str">
+      <c r="D11" s="12" t="str">
         <f>IF(_glys_month_all!J3="","",_glys_month_all!J3)</f>
         <v/>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="9" t="str">
+      <c r="E11" s="11"/>
+      <c r="F11" s="10" t="str">
+        <f>IF(_glys_month_all!J3="","",_glys_month_all!J3)</f>
+        <v/>
+      </c>
+      <c r="G11" s="12" t="str">
         <f>IF(_glys_month_all!J4="","",_glys_month_all!J4)</f>
         <v/>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="9" t="str">
+      <c r="H11" s="11"/>
+      <c r="I11" s="10" t="str">
+        <f>IF(_glys_month_all!J4="","",_glys_month_all!J4)</f>
+        <v/>
+      </c>
+      <c r="J11" s="12" t="str">
         <f>IF(_glys_month_all!J5="","",_glys_month_all!J5)</f>
         <v/>
       </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8" t="s">
+      <c r="K11" s="11"/>
+      <c r="L11" s="10" t="str">
+        <f>IF(_glys_month_all!J5="","",_glys_month_all!J5)</f>
+        <v/>
+      </c>
+      <c r="M11" s="12" t="str">
+        <f>IF(_glys_month_all!J6="","",_glys_month_all!J6)</f>
+        <v/>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="9" t="str">
+      <c r="C12" s="10" t="str">
         <f>IF(_glys_month_all!I2="","",_glys_month_all!I2)</f>
         <v/>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9" t="str">
+      <c r="D12" s="12" t="str">
         <f>IF(_glys_month_all!I3="","",_glys_month_all!I3)</f>
         <v/>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="9" t="str">
+      <c r="E12" s="11"/>
+      <c r="F12" s="10" t="str">
+        <f>IF(_glys_month_all!I3="","",_glys_month_all!I3)</f>
+        <v/>
+      </c>
+      <c r="G12" s="12" t="str">
         <f>IF(_glys_month_all!I4="","",_glys_month_all!I4)</f>
         <v/>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="9" t="str">
-        <f>IF(_glys_month_all!L4="","",_glys_month_all!L4)</f>
-        <v/>
-      </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="10" t="str">
+        <f>IF(_glys_month_all!I4="","",_glys_month_all!I4)</f>
+        <v/>
+      </c>
+      <c r="J12" s="12" t="str">
+        <f>IF(_glys_month_all!I5="","",_glys_month_all!I5)</f>
+        <v/>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="10" t="str">
+        <f>IF(_glys_month_all!I5="","",_glys_month_all!I5)</f>
+        <v/>
+      </c>
+      <c r="M12" s="12" t="str">
+        <f>IF(_glys_month_all!I6="","",_glys_month_all!I6)</f>
+        <v/>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="9" t="str">
+      <c r="C13" s="10" t="str">
         <f>IF(_glys_month_all!C2="","",_glys_month_all!C2)</f>
         <v/>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="10" t="e">
+      <c r="D13" s="13" t="str">
+        <f>IF(_glys_month_all!C3="","",_glys_month_all!C3)</f>
+        <v/>
+      </c>
+      <c r="E13" s="11" t="e">
         <f>(D13-C13)/SQRT(((D15-C15)+(D16-C16))*((D15-C15)+(D16-C16))+(D13-C13)*(D13-C13))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F13" s="9" t="str">
+      <c r="F13" s="10" t="str">
         <f>IF(_glys_month_all!C3="","",_glys_month_all!C3)</f>
         <v/>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="10" t="e">
+      <c r="G13" s="13" t="str">
+        <f>IF(_glys_month_all!C4="","",_glys_month_all!C4)</f>
+        <v/>
+      </c>
+      <c r="H13" s="11" t="e">
         <f>(G13-F13)/SQRT(((G15-F15)+(G16-F16))*((G15-F15)+(G16-F16))+(G13-F13)*(G13-F13))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I13" s="9" t="str">
+      <c r="I13" s="10" t="str">
         <f>IF(_glys_month_all!C4="","",_glys_month_all!C4)</f>
         <v/>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="10" t="e">
+      <c r="J13" s="13" t="str">
+        <f>IF(_glys_month_all!C5="","",_glys_month_all!C5)</f>
+        <v/>
+      </c>
+      <c r="K13" s="11" t="e">
         <f>(J13-I13)/SQRT(((J15-I15)+(J16-I16))*((J15-I15)+(J16-I16))+(J13-I13)*(J13-I13))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L13" s="9" t="str">
+      <c r="L13" s="10" t="str">
         <f>IF(_glys_month_all!C5="","",_glys_month_all!C5)</f>
         <v/>
       </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="10" t="e">
+      <c r="M13" s="13" t="str">
+        <f>IF(_glys_month_all!C6="","",_glys_month_all!C6)</f>
+        <v/>
+      </c>
+      <c r="N13" s="11" t="e">
         <f>(M13-L13)/SQRT(((M15-L15)+(M16-L16))*((M15-L15)+(M16-L16))+(M13-L13)*(M13-L13))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O13" s="10" t="e">
+      <c r="O13" s="11" t="e">
         <f>(M13-C13)/SQRT(((M15-C15)+(M16-C16))*((M15-C15)+(M16-C16))+(M13-C13)*(M13-C13))</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="9" t="str">
+      <c r="C14" s="10" t="str">
         <f>IF(_glys_month_all!D2="","",_glys_month_all!D2)</f>
         <v/>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="9" t="str">
+      <c r="D14" s="14" t="str">
         <f>IF(_glys_month_all!D3="","",_glys_month_all!D3)</f>
         <v/>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="9" t="str">
+      <c r="E14" s="11"/>
+      <c r="F14" s="10" t="str">
+        <f>IF(_glys_month_all!D3="","",_glys_month_all!D3)</f>
+        <v/>
+      </c>
+      <c r="G14" s="12" t="str">
         <f>IF(_glys_month_all!D4="","",_glys_month_all!D4)</f>
         <v/>
       </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="9" t="str">
+      <c r="H14" s="11"/>
+      <c r="I14" s="10" t="str">
+        <f>IF(_glys_month_all!D4="","",_glys_month_all!D4)</f>
+        <v/>
+      </c>
+      <c r="J14" s="14" t="str">
         <f>IF(_glys_month_all!D5="","",_glys_month_all!D5)</f>
         <v/>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="10" t="str">
+        <f>IF(_glys_month_all!D5="","",_glys_month_all!D5)</f>
+        <v/>
+      </c>
+      <c r="M14" s="14" t="str">
+        <f>IF(_glys_month_all!D6="","",_glys_month_all!D6)</f>
+        <v/>
+      </c>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="9" t="str">
+      <c r="C15" s="10" t="str">
         <f>IF(_glys_month_all!K2="","",_glys_month_all!K2)</f>
         <v/>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="9" t="str">
+      <c r="D15" s="13" t="str">
         <f>IF(_glys_month_all!K3="","",_glys_month_all!K3)</f>
         <v/>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="9" t="str">
+      <c r="E15" s="11"/>
+      <c r="F15" s="10" t="str">
+        <f>IF(_glys_month_all!K3="","",_glys_month_all!K3)</f>
+        <v/>
+      </c>
+      <c r="G15" s="12" t="str">
         <f>IF(_glys_month_all!K4="","",_glys_month_all!K4)</f>
         <v/>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="9" t="str">
+      <c r="H15" s="11"/>
+      <c r="I15" s="10" t="str">
+        <f>IF(_glys_month_all!K4="","",_glys_month_all!K4)</f>
+        <v/>
+      </c>
+      <c r="J15" s="13" t="str">
         <f>IF(_glys_month_all!K5="","",_glys_month_all!K5)</f>
         <v/>
       </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="10" t="str">
+        <f>IF(_glys_month_all!K5="","",_glys_month_all!K5)</f>
+        <v/>
+      </c>
+      <c r="M15" s="13" t="str">
+        <f>IF(_glys_month_all!K6="","",_glys_month_all!K6)</f>
+        <v/>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="9" t="str">
+      <c r="C16" s="10" t="str">
         <f>IF(_glys_month_all!L2="","",_glys_month_all!L2)</f>
         <v/>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="9" t="str">
+      <c r="D16" s="13" t="str">
         <f>IF(_glys_month_all!L3="","",_glys_month_all!L3)</f>
         <v/>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="9" t="str">
+      <c r="E16" s="11"/>
+      <c r="F16" s="10" t="str">
+        <f>IF(_glys_month_all!L3="","",_glys_month_all!L3)</f>
+        <v/>
+      </c>
+      <c r="G16" s="12" t="str">
         <f>IF(_glys_month_all!L4="","",_glys_month_all!L4)</f>
         <v/>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="9" t="str">
+      <c r="H16" s="11"/>
+      <c r="I16" s="10" t="str">
+        <f>IF(_glys_month_all!L4="","",_glys_month_all!L4)</f>
+        <v/>
+      </c>
+      <c r="J16" s="13" t="str">
         <f>IF(_glys_month_all!L5="","",_glys_month_all!L5)</f>
         <v/>
       </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="10" t="str">
+        <f>IF(_glys_month_all!L5="","",_glys_month_all!L5)</f>
+        <v/>
+      </c>
+      <c r="M16" s="13" t="str">
+        <f>IF(_glys_month_all!L6="","",_glys_month_all!L6)</f>
+        <v/>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
     </row>
     <row r="17" ht="33" customHeight="1" spans="1:15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
     </row>
     <row r="18" ht="25.5" spans="1:15">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
     </row>
     <row r="19" ht="25.5" spans="1:15">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
     </row>
     <row r="20" ht="25.5" spans="1:15">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
     </row>
     <row r="21" ht="25.5" spans="1:15">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -3529,7 +3684,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3595,9 +3750,9 @@
       <selection activeCell="F25" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.0833333333333" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="16384" width="10.0833333333333" style="1"/>
+    <col min="1" max="16384" width="10.125" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
